--- a/20160411 - 003/running_logs/logs.xlsx
+++ b/20160411 - 003/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>Time</t>
   </si>
@@ -119,6 +119,72 @@
   </si>
   <si>
     <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 3000</t>
+  </si>
+  <si>
+    <t>20160412_162404</t>
+  </si>
+  <si>
+    <t>remove multiple spaces, convert unicode to ascii, convert to lower, remove break line, trim "space" and ",", space after punctuation</t>
+  </si>
+  <si>
+    <t>20160412_165307</t>
+  </si>
+  <si>
+    <t>20160412_172236</t>
+  </si>
+  <si>
+    <t>20160412_175257</t>
+  </si>
+  <si>
+    <t>20160412_182357</t>
+  </si>
+  <si>
+    <t>20160413_093541</t>
+  </si>
+  <si>
+    <t>space after punctuation, convert unicode to ascii, trim "space" and ",", remove break line, remove multiple spaces, convert to lower</t>
+  </si>
+  <si>
+    <t>20160413_095517</t>
+  </si>
+  <si>
+    <t>20160413_101451</t>
+  </si>
+  <si>
+    <t>20160413_151635</t>
+  </si>
+  <si>
+    <t>convert unicode to ascii, space after punctuation, remove multiple spaces, remove break line, trim "space" and ",", convert to lower</t>
+  </si>
+  <si>
+    <t>20160413_152621</t>
+  </si>
+  <si>
+    <t>20160413_153605</t>
+  </si>
+  <si>
+    <t>20160413_154600</t>
+  </si>
+  <si>
+    <t>20160413_161430</t>
+  </si>
+  <si>
+    <t>trim "space" and ",", remove multiple spaces, convert to lower, convert unicode to ascii, remove break line, space after punctuation</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 4000</t>
+  </si>
+  <si>
+    <t>20160413_165227</t>
+  </si>
+  <si>
+    <t>20160413_173043</t>
+  </si>
+  <si>
+    <t>20160413_180940</t>
+  </si>
+  <si>
+    <t>20160413_184928</t>
   </si>
 </sst>
 </file>
@@ -450,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,6 +807,550 @@
         <v>0.585365853658537</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1743.681</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>0.998</v>
+      </c>
+      <c r="H10">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0.573170731707317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>1768.121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>0.996666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>1821.67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>0.998</v>
+      </c>
+      <c r="H12">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0.524390243902439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1860.188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>0.997333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0.560975609756098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>1853.393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>0.996</v>
+      </c>
+      <c r="H14">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0.560975609756098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
+        <v>1176.025</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>0.990666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>0.341463414634146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>1174.583</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>0.994</v>
+      </c>
+      <c r="H16">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0.585365853658537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>1189.835</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>0.993333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.658536585365854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>585.56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>0.992</v>
+      </c>
+      <c r="H18">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0.658536585365854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>583.602</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>0.99</v>
+      </c>
+      <c r="H19">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0.682926829268293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>595.629</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>0.988</v>
+      </c>
+      <c r="H20">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0.695121951219512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>598.55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>0.99</v>
+      </c>
+      <c r="H21">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.573170731707317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>2277.003</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>0.997333333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>0.524390243902439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>2295.786</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23">
+        <v>0.996666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>0.524390243902439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>2337.267</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>0.990666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>0.573170731707317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25">
+        <v>2387.696</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25">
+        <v>0.994</v>
+      </c>
+      <c r="H25">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>0.573170731707317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26">
+        <v>2446.864</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>0.998666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>0.463414634146341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
